--- a/molmap/feature/fingerprint/maccskeys.xlsx
+++ b/molmap/feature/fingerprint/maccskeys.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="337">
   <si>
     <t>Bit Position</t>
   </si>
@@ -31,991 +31,1000 @@
     <t>MACCSFP0</t>
   </si>
   <si>
+    <t>(None, 0)</t>
+  </si>
+  <si>
+    <t>placeholder</t>
+  </si>
+  <si>
+    <t>MACCSFP1</t>
+  </si>
+  <si>
     <t>('?', 0)</t>
   </si>
   <si>
-    <t>MACCSFP1</t>
+    <t>MACCSFP2</t>
   </si>
   <si>
     <t>('[#104]', 0)</t>
   </si>
   <si>
-    <t>MACCSFP2</t>
+    <t>MACCSFP3</t>
   </si>
   <si>
     <t>('[#32,#33,#34,#50,#51,#52,#82,#83,#84]', 0)</t>
   </si>
   <si>
-    <t>MACCSFP3</t>
+    <t>MACCSFP4</t>
   </si>
   <si>
     <t>('[Ac,Th,Pa,U,Np,Pu,Am,Cm,Bk,Cf,Es,Fm,Md,No,Lr]', 0)</t>
   </si>
   <si>
-    <t>MACCSFP4</t>
+    <t>MACCSFP5</t>
   </si>
   <si>
     <t>('[Sc,Ti,Y,Zr,Hf]', 0)</t>
   </si>
   <si>
-    <t>MACCSFP5</t>
+    <t>MACCSFP6</t>
   </si>
   <si>
     <t>('[La,Ce,Pr,Nd,Pm,Sm,Eu,Gd,Tb,Dy,Ho,Er,Tm,Yb,Lu]', 0)</t>
   </si>
   <si>
-    <t>MACCSFP6</t>
+    <t>MACCSFP7</t>
   </si>
   <si>
     <t>('[V,Cr,Mn,Nb,Mo,Tc,Ta,W,Re]', 0)</t>
   </si>
   <si>
-    <t>MACCSFP7</t>
+    <t>MACCSFP8</t>
   </si>
   <si>
     <t>('[!#6;!#1]1~*~*~*~1', 0)</t>
   </si>
   <si>
-    <t>MACCSFP8</t>
+    <t>MACCSFP9</t>
   </si>
   <si>
     <t>('[Fe,Co,Ni,Ru,Rh,Pd,Os,Ir,Pt]', 0)</t>
   </si>
   <si>
-    <t>MACCSFP9</t>
+    <t>MACCSFP10</t>
   </si>
   <si>
     <t>('[Be,Mg,Ca,Sr,Ba,Ra]', 0)</t>
   </si>
   <si>
-    <t>MACCSFP10</t>
+    <t>MACCSFP11</t>
   </si>
   <si>
     <t>('*1~*~*~*~1', 0)</t>
   </si>
   <si>
-    <t>MACCSFP11</t>
+    <t>MACCSFP12</t>
   </si>
   <si>
     <t>('[Cu,Zn,Ag,Cd,Au,Hg]', 0)</t>
   </si>
   <si>
-    <t>MACCSFP12</t>
+    <t>MACCSFP13</t>
   </si>
   <si>
     <t>('[#8]~[#7](~[#6])~[#6]', 0)</t>
   </si>
   <si>
-    <t>MACCSFP13</t>
+    <t>MACCSFP14</t>
   </si>
   <si>
     <t>('[#16]-[#16]', 0)</t>
   </si>
   <si>
-    <t>MACCSFP14</t>
+    <t>MACCSFP15</t>
   </si>
   <si>
     <t>('[#8]~[#6](~[#8])~[#8]', 0)</t>
   </si>
   <si>
-    <t>MACCSFP15</t>
+    <t>MACCSFP16</t>
   </si>
   <si>
     <t>('[!#6;!#1]1~*~*~1', 0)</t>
   </si>
   <si>
-    <t>MACCSFP16</t>
+    <t>MACCSFP17</t>
   </si>
   <si>
     <t>('[#6]#[#6]', 0)</t>
   </si>
   <si>
-    <t>MACCSFP17</t>
+    <t>MACCSFP18</t>
   </si>
   <si>
     <t>('[#5,#13,#31,#49,#81]', 0)</t>
   </si>
   <si>
-    <t>MACCSFP18</t>
+    <t>MACCSFP19</t>
   </si>
   <si>
     <t>('*1~*~*~*~*~*~*~1', 0)</t>
   </si>
   <si>
-    <t>MACCSFP19</t>
+    <t>MACCSFP20</t>
   </si>
   <si>
     <t>('[#14]', 0)</t>
   </si>
   <si>
-    <t>MACCSFP20</t>
+    <t>MACCSFP21</t>
   </si>
   <si>
     <t>('[#6]=[#6](~[!#6;!#1])~[!#6;!#1]', 0)</t>
   </si>
   <si>
-    <t>MACCSFP21</t>
+    <t>MACCSFP22</t>
   </si>
   <si>
     <t>('*1~*~*~1', 0)</t>
   </si>
   <si>
-    <t>MACCSFP22</t>
+    <t>MACCSFP23</t>
   </si>
   <si>
     <t>('[#7]~[#6](~[#8])~[#8]', 0)</t>
   </si>
   <si>
-    <t>MACCSFP23</t>
+    <t>MACCSFP24</t>
   </si>
   <si>
     <t>('[#7]-[#8]', 0)</t>
   </si>
   <si>
-    <t>MACCSFP24</t>
+    <t>MACCSFP25</t>
   </si>
   <si>
     <t>('[#7]~[#6](~[#7])~[#7]', 0)</t>
   </si>
   <si>
-    <t>MACCSFP25</t>
+    <t>MACCSFP26</t>
   </si>
   <si>
     <t>('[#6]=;@[#6](@*)@*', 0)</t>
   </si>
   <si>
-    <t>MACCSFP26</t>
+    <t>MACCSFP27</t>
   </si>
   <si>
     <t>('[I]', 0)</t>
   </si>
   <si>
-    <t>MACCSFP27</t>
+    <t>MACCSFP28</t>
   </si>
   <si>
     <t>('[!#6;!#1]~[CH2]~[!#6;!#1]', 0)</t>
   </si>
   <si>
-    <t>MACCSFP28</t>
+    <t>MACCSFP29</t>
   </si>
   <si>
     <t>('[#15]', 0)</t>
   </si>
   <si>
-    <t>MACCSFP29</t>
+    <t>MACCSFP30</t>
   </si>
   <si>
     <t>('[#6]~[!#6;!#1](~[#6])(~[#6])~*', 0)</t>
   </si>
   <si>
-    <t>MACCSFP30</t>
+    <t>MACCSFP31</t>
   </si>
   <si>
     <t>('[!#6;!#1]~[F,Cl,Br,I]', 0)</t>
   </si>
   <si>
-    <t>MACCSFP31</t>
+    <t>MACCSFP32</t>
   </si>
   <si>
     <t>('[#6]~[#16]~[#7]', 0)</t>
   </si>
   <si>
-    <t>MACCSFP32</t>
+    <t>MACCSFP33</t>
   </si>
   <si>
     <t>('[#7]~[#16]', 0)</t>
   </si>
   <si>
-    <t>MACCSFP33</t>
+    <t>MACCSFP34</t>
   </si>
   <si>
     <t>('[CH2]=*', 0)</t>
   </si>
   <si>
-    <t>MACCSFP34</t>
+    <t>MACCSFP35</t>
   </si>
   <si>
     <t>('[Li,Na,K,Rb,Cs,Fr]', 0)</t>
   </si>
   <si>
-    <t>MACCSFP35</t>
+    <t>MACCSFP36</t>
   </si>
   <si>
     <t>('[#16R]', 0)</t>
   </si>
   <si>
-    <t>MACCSFP36</t>
+    <t>MACCSFP37</t>
   </si>
   <si>
     <t>('[#7]~[#6](~[#8])~[#7]', 0)</t>
   </si>
   <si>
-    <t>MACCSFP37</t>
+    <t>MACCSFP38</t>
   </si>
   <si>
     <t>('[#7]~[#6](~[#6])~[#7]', 0)</t>
   </si>
   <si>
-    <t>MACCSFP38</t>
+    <t>MACCSFP39</t>
   </si>
   <si>
     <t>('[#8]~[#16](~[#8])~[#8]', 0)</t>
   </si>
   <si>
-    <t>MACCSFP39</t>
+    <t>MACCSFP40</t>
   </si>
   <si>
     <t>('[#16]-[#8]', 0)</t>
   </si>
   <si>
-    <t>MACCSFP40</t>
+    <t>MACCSFP41</t>
   </si>
   <si>
     <t>('[#6]#[#7]', 0)</t>
   </si>
   <si>
-    <t>MACCSFP41</t>
+    <t>MACCSFP42</t>
   </si>
   <si>
     <t>('F', 0)</t>
   </si>
   <si>
-    <t>MACCSFP42</t>
+    <t>MACCSFP43</t>
   </si>
   <si>
     <t>('[!#6;!#1;!H0]~*~[!#6;!#1;!H0]', 0)</t>
   </si>
   <si>
-    <t>MACCSFP43</t>
+    <t>MACCSFP44</t>
   </si>
   <si>
     <t>('[!#1;!#6;!#7;!#8;!#9;!#14;!#15;!#16;!#17;!#35;!#53]', 0)</t>
   </si>
   <si>
-    <t>MACCSFP44</t>
+    <t>MACCSFP45</t>
   </si>
   <si>
     <t>('[#6]=[#6]~[#7]', 0)</t>
   </si>
   <si>
-    <t>MACCSFP45</t>
+    <t>MACCSFP46</t>
   </si>
   <si>
     <t>('Br', 0)</t>
   </si>
   <si>
-    <t>MACCSFP46</t>
+    <t>MACCSFP47</t>
   </si>
   <si>
     <t>('[#16]~*~[#7]', 0)</t>
   </si>
   <si>
-    <t>MACCSFP47</t>
+    <t>MACCSFP48</t>
   </si>
   <si>
     <t>('[#8]~[!#6;!#1](~[#8])(~[#8])', 0)</t>
   </si>
   <si>
-    <t>MACCSFP48</t>
+    <t>MACCSFP49</t>
   </si>
   <si>
     <t>('[!+0]', 0)</t>
   </si>
   <si>
-    <t>MACCSFP49</t>
+    <t>MACCSFP50</t>
   </si>
   <si>
     <t>('[#6]=[#6](~[#6])~[#6]', 0)</t>
   </si>
   <si>
-    <t>MACCSFP50</t>
+    <t>MACCSFP51</t>
   </si>
   <si>
     <t>('[#6]~[#16]~[#8]', 0)</t>
   </si>
   <si>
-    <t>MACCSFP51</t>
+    <t>MACCSFP52</t>
   </si>
   <si>
     <t>('[#7]~[#7]', 0)</t>
   </si>
   <si>
-    <t>MACCSFP52</t>
+    <t>MACCSFP53</t>
   </si>
   <si>
     <t>('[!#6;!#1;!H0]~*~*~*~[!#6;!#1;!H0]', 0)</t>
   </si>
   <si>
-    <t>MACCSFP53</t>
+    <t>MACCSFP54</t>
   </si>
   <si>
     <t>('[!#6;!#1;!H0]~*~*~[!#6;!#1;!H0]', 0)</t>
   </si>
   <si>
-    <t>MACCSFP54</t>
+    <t>MACCSFP55</t>
   </si>
   <si>
     <t>('[#8]~[#16]~[#8]', 0)</t>
   </si>
   <si>
-    <t>MACCSFP55</t>
+    <t>MACCSFP56</t>
   </si>
   <si>
     <t>('[#8]~[#7](~[#8])~[#6]', 0)</t>
   </si>
   <si>
-    <t>MACCSFP56</t>
+    <t>MACCSFP57</t>
   </si>
   <si>
     <t>('[#8R]', 0)</t>
   </si>
   <si>
-    <t>MACCSFP57</t>
+    <t>MACCSFP58</t>
   </si>
   <si>
     <t>('[!#6;!#1]~[#16]~[!#6;!#1]', 0)</t>
   </si>
   <si>
-    <t>MACCSFP58</t>
+    <t>MACCSFP59</t>
   </si>
   <si>
     <t>('[#16]!:*:*', 0)</t>
   </si>
   <si>
-    <t>MACCSFP59</t>
+    <t>MACCSFP60</t>
   </si>
   <si>
     <t>('[#16]=[#8]', 0)</t>
   </si>
   <si>
-    <t>MACCSFP60</t>
+    <t>MACCSFP61</t>
   </si>
   <si>
     <t>('*~[#16](~*)~*', 0)</t>
   </si>
   <si>
-    <t>MACCSFP61</t>
+    <t>MACCSFP62</t>
   </si>
   <si>
     <t>('*@*!@*@*', 0)</t>
   </si>
   <si>
-    <t>MACCSFP62</t>
+    <t>MACCSFP63</t>
   </si>
   <si>
     <t>('[#7]=[#8]', 0)</t>
   </si>
   <si>
-    <t>MACCSFP63</t>
+    <t>MACCSFP64</t>
   </si>
   <si>
     <t>('*@*!@[#16]', 0)</t>
   </si>
   <si>
-    <t>MACCSFP64</t>
+    <t>MACCSFP65</t>
   </si>
   <si>
     <t>('c:n', 0)</t>
   </si>
   <si>
-    <t>MACCSFP65</t>
+    <t>MACCSFP66</t>
   </si>
   <si>
     <t>('[#6]~[#6](~[#6])(~[#6])~*', 0)</t>
   </si>
   <si>
-    <t>MACCSFP66</t>
+    <t>MACCSFP67</t>
   </si>
   <si>
     <t>('[!#6;!#1]~[#16]', 0)</t>
   </si>
   <si>
-    <t>MACCSFP67</t>
+    <t>MACCSFP68</t>
   </si>
   <si>
     <t>('[!#6;!#1;!H0]~[!#6;!#1;!H0]', 0)</t>
   </si>
   <si>
-    <t>MACCSFP68</t>
+    <t>MACCSFP69</t>
   </si>
   <si>
     <t>('[!#6;!#1]~[!#6;!#1;!H0]', 0)</t>
   </si>
   <si>
-    <t>MACCSFP69</t>
+    <t>MACCSFP70</t>
   </si>
   <si>
     <t>('[!#6;!#1]~[#7]~[!#6;!#1]', 0)</t>
   </si>
   <si>
-    <t>MACCSFP70</t>
+    <t>MACCSFP71</t>
   </si>
   <si>
     <t>('[#7]~[#8]', 0)</t>
   </si>
   <si>
-    <t>MACCSFP71</t>
+    <t>MACCSFP72</t>
   </si>
   <si>
     <t>('[#8]~*~*~[#8]', 0)</t>
   </si>
   <si>
-    <t>MACCSFP72</t>
+    <t>MACCSFP73</t>
   </si>
   <si>
     <t>('[#16]=*', 0)</t>
   </si>
   <si>
-    <t>MACCSFP73</t>
+    <t>MACCSFP74</t>
   </si>
   <si>
     <t>('[CH3]~*~[CH3]', 0)</t>
   </si>
   <si>
-    <t>MACCSFP74</t>
+    <t>MACCSFP75</t>
   </si>
   <si>
     <t>('*!@[#7]@*', 0)</t>
   </si>
   <si>
-    <t>MACCSFP75</t>
+    <t>MACCSFP76</t>
   </si>
   <si>
     <t>('[#6]=[#6](~*)~*', 0)</t>
   </si>
   <si>
-    <t>MACCSFP76</t>
+    <t>MACCSFP77</t>
   </si>
   <si>
     <t>('[#7]~*~[#7]', 0)</t>
   </si>
   <si>
-    <t>MACCSFP77</t>
+    <t>MACCSFP78</t>
   </si>
   <si>
     <t>('[#6]=[#7]', 0)</t>
   </si>
   <si>
-    <t>MACCSFP78</t>
+    <t>MACCSFP79</t>
   </si>
   <si>
     <t>('[#7]~*~*~[#7]', 0)</t>
   </si>
   <si>
-    <t>MACCSFP79</t>
+    <t>MACCSFP80</t>
   </si>
   <si>
     <t>('[#7]~*~*~*~[#7]', 0)</t>
   </si>
   <si>
-    <t>MACCSFP80</t>
+    <t>MACCSFP81</t>
   </si>
   <si>
     <t>('[#16]~*(~*)~*', 0)</t>
   </si>
   <si>
-    <t>MACCSFP81</t>
+    <t>MACCSFP82</t>
   </si>
   <si>
     <t>('*~[CH2]~[!#6;!#1;!H0]', 0)</t>
   </si>
   <si>
-    <t>MACCSFP82</t>
+    <t>MACCSFP83</t>
   </si>
   <si>
     <t>('[!#6;!#1]1~*~*~*~*~1', 0)</t>
   </si>
   <si>
-    <t>MACCSFP83</t>
+    <t>MACCSFP84</t>
   </si>
   <si>
     <t>('[NH2]', 0)</t>
   </si>
   <si>
-    <t>MACCSFP84</t>
+    <t>MACCSFP85</t>
   </si>
   <si>
     <t>('[#6]~[#7](~[#6])~[#6]', 0)</t>
   </si>
   <si>
-    <t>MACCSFP85</t>
+    <t>MACCSFP86</t>
   </si>
   <si>
     <t>('[C;H2,H3][!#6;!#1][C;H2,H3]', 0)</t>
   </si>
   <si>
-    <t>MACCSFP86</t>
+    <t>MACCSFP87</t>
   </si>
   <si>
     <t>('[F,Cl,Br,I]!@*@*', 0)</t>
   </si>
   <si>
-    <t>MACCSFP87</t>
+    <t>MACCSFP88</t>
   </si>
   <si>
     <t>('[#16]', 0)</t>
   </si>
   <si>
-    <t>MACCSFP88</t>
+    <t>MACCSFP89</t>
   </si>
   <si>
     <t>('[#8]~*~*~*~[#8]', 0)</t>
   </si>
   <si>
-    <t>MACCSFP89</t>
+    <t>MACCSFP90</t>
   </si>
   <si>
     <t>('[$([!#6;!#1;!H0]~*~*~[CH2]~*),$([!#6;!#1;!H0;R]1@[R]@[R]@[CH2;R]1),$([!#6;!#1;!H0]~[R]1@[R]@[CH2;R]1)]', 0)</t>
   </si>
   <si>
-    <t>MACCSFP90</t>
+    <t>MACCSFP91</t>
   </si>
   <si>
     <t>('[$([!#6;!#1;!H0]~*~*~*~[CH2]~*),$([!#6;!#1;!H0;R]1@[R]@[R]@[R]@[CH2;R]1),$([!#6;!#1;!H0]~[R]1@[R]@[R]@[CH2;R]1),$([!#6;!#1;!H0]~*~[R]1@[R]@[CH2;R]1)]', 0)</t>
   </si>
   <si>
-    <t>MACCSFP91</t>
+    <t>MACCSFP92</t>
   </si>
   <si>
     <t>('[#8]~[#6](~[#7])~[#6]', 0)</t>
   </si>
   <si>
-    <t>MACCSFP92</t>
+    <t>MACCSFP93</t>
   </si>
   <si>
     <t>('[!#6;!#1]~[CH3]', 0)</t>
   </si>
   <si>
-    <t>MACCSFP93</t>
+    <t>MACCSFP94</t>
   </si>
   <si>
     <t>('[!#6;!#1]~[#7]', 0)</t>
   </si>
   <si>
-    <t>MACCSFP94</t>
+    <t>MACCSFP95</t>
   </si>
   <si>
     <t>('[#7]~*~*~[#8]', 0)</t>
   </si>
   <si>
-    <t>MACCSFP95</t>
+    <t>MACCSFP96</t>
   </si>
   <si>
     <t>('*1~*~*~*~*~1', 0)</t>
   </si>
   <si>
-    <t>MACCSFP96</t>
+    <t>MACCSFP97</t>
   </si>
   <si>
     <t>('[#7]~*~*~*~[#8]', 0)</t>
   </si>
   <si>
-    <t>MACCSFP97</t>
+    <t>MACCSFP98</t>
   </si>
   <si>
     <t>('[!#6;!#1]1~*~*~*~*~*~1', 0)</t>
   </si>
   <si>
-    <t>MACCSFP98</t>
+    <t>MACCSFP99</t>
   </si>
   <si>
     <t>('[#6]=[#6]', 0)</t>
   </si>
   <si>
-    <t>MACCSFP99</t>
+    <t>MACCSFP100</t>
   </si>
   <si>
     <t>('*~[CH2]~[#7]', 0)</t>
   </si>
   <si>
-    <t>MACCSFP100</t>
+    <t>MACCSFP101</t>
   </si>
   <si>
     <t>('[$([R]@1@[R]@[R]@[R]@[R]@[R]@[R]@[R]1),$([R]@1@[R]@[R]@[R]@[R]@[R]@[R]@[R]@[R]1),$([R]@1@[R]@[R]@[R]@[R]@[R]@[R]@[R]@[R]@[R]1),$([R]@1@[R]@[R]@[R]@[R]@[R]@[R]@[R]@[R]@[R]@[R]1),$([R]@1@[R]@[R]@[R]@[R]@[R]@[R]@[R]@[R]@[R]@[R]@[R]1),$([R]@1@[R]@[R]@[R]@[R]@[R]@[R]@[R]@[R]@[R]@[R]@[R]@[R]1),$([R]@1@[R]@[R]@[R]@[R]@[R]@[R]@[R]@[R]@[R]@[R]@[R]@[R]@[R]1)]', 0)</t>
   </si>
   <si>
-    <t>MACCSFP101</t>
+    <t>MACCSFP102</t>
   </si>
   <si>
     <t>('[!#6;!#1]~[#8]', 0)</t>
   </si>
   <si>
-    <t>MACCSFP102</t>
+    <t>MACCSFP103</t>
   </si>
   <si>
     <t>('Cl', 0)</t>
   </si>
   <si>
-    <t>MACCSFP103</t>
+    <t>MACCSFP104</t>
   </si>
   <si>
     <t>('[!#6;!#1;!H0]~*~[CH2]~*', 0)</t>
   </si>
   <si>
-    <t>MACCSFP104</t>
+    <t>MACCSFP105</t>
   </si>
   <si>
     <t>('*@*(@*)@*', 0)</t>
   </si>
   <si>
-    <t>MACCSFP105</t>
+    <t>MACCSFP106</t>
   </si>
   <si>
     <t>('[!#6;!#1]~*(~[!#6;!#1])~[!#6;!#1]', 0)</t>
   </si>
   <si>
-    <t>MACCSFP106</t>
+    <t>MACCSFP107</t>
   </si>
   <si>
     <t>('[F,Cl,Br,I]~*(~*)~*', 0)</t>
   </si>
   <si>
-    <t>MACCSFP107</t>
+    <t>MACCSFP108</t>
   </si>
   <si>
     <t>('[CH3]~*~*~*~[CH2]~*', 0)</t>
   </si>
   <si>
-    <t>MACCSFP108</t>
+    <t>MACCSFP109</t>
   </si>
   <si>
     <t>('*~[CH2]~[#8]', 0)</t>
   </si>
   <si>
-    <t>MACCSFP109</t>
+    <t>MACCSFP110</t>
   </si>
   <si>
     <t>('[#7]~[#6]~[#8]', 0)</t>
   </si>
   <si>
-    <t>MACCSFP110</t>
+    <t>MACCSFP111</t>
   </si>
   <si>
     <t>('[#7]~*~[CH2]~*', 0)</t>
   </si>
   <si>
-    <t>MACCSFP111</t>
+    <t>MACCSFP112</t>
   </si>
   <si>
     <t>('*~*(~*)(~*)~*', 0)</t>
   </si>
   <si>
-    <t>MACCSFP112</t>
+    <t>MACCSFP113</t>
   </si>
   <si>
     <t>('[#8]!:*:*', 0)</t>
   </si>
   <si>
-    <t>MACCSFP113</t>
+    <t>MACCSFP114</t>
   </si>
   <si>
     <t>('[CH3]~[CH2]~*', 0)</t>
   </si>
   <si>
-    <t>MACCSFP114</t>
+    <t>MACCSFP115</t>
   </si>
   <si>
     <t>('[CH3]~*~[CH2]~*', 0)</t>
   </si>
   <si>
-    <t>MACCSFP115</t>
+    <t>MACCSFP116</t>
   </si>
   <si>
     <t>('[$([CH3]~*~*~[CH2]~*),$([CH3]~*1~*~[CH2]1)]', 0)</t>
   </si>
   <si>
-    <t>MACCSFP116</t>
+    <t>MACCSFP117</t>
   </si>
   <si>
     <t>('[#7]~*~[#8]', 0)</t>
   </si>
   <si>
-    <t>MACCSFP117</t>
+    <t>MACCSFP118</t>
   </si>
   <si>
     <t>('[$(*~[CH2]~[CH2]~*),$(*1~[CH2]~[CH2]1)]', 1)</t>
   </si>
   <si>
-    <t>MACCSFP118</t>
+    <t>MACCSFP119</t>
   </si>
   <si>
     <t>('[#7]=*', 0)</t>
   </si>
   <si>
-    <t>MACCSFP119</t>
+    <t>MACCSFP120</t>
   </si>
   <si>
     <t>('[!#6;R]', 1)</t>
   </si>
   <si>
-    <t>MACCSFP120</t>
+    <t>MACCSFP121</t>
   </si>
   <si>
     <t>('[#7;R]', 0)</t>
   </si>
   <si>
-    <t>MACCSFP121</t>
+    <t>MACCSFP122</t>
   </si>
   <si>
     <t>('*~[#7](~*)~*', 0)</t>
   </si>
   <si>
-    <t>MACCSFP122</t>
+    <t>MACCSFP123</t>
   </si>
   <si>
     <t>('[#8]~[#6]~[#8]', 0)</t>
   </si>
   <si>
-    <t>MACCSFP123</t>
+    <t>MACCSFP124</t>
   </si>
   <si>
     <t>('[!#6;!#1]~[!#6;!#1]', 0)</t>
   </si>
   <si>
-    <t>MACCSFP124</t>
-  </si>
-  <si>
     <t>MACCSFP125</t>
   </si>
   <si>
+    <t>MACCSFP126</t>
+  </si>
+  <si>
     <t>('*!@[#8]!@*', 0)</t>
   </si>
   <si>
-    <t>MACCSFP126</t>
+    <t>MACCSFP127</t>
   </si>
   <si>
     <t>('*@*!@[#8]', 1)</t>
   </si>
   <si>
-    <t>MACCSFP127</t>
+    <t>MACCSFP128</t>
   </si>
   <si>
     <t>('[$(*~[CH2]~*~*~*~[CH2]~*),$([R]1@[CH2;R]@[R]@[R]@[R]@[CH2;R]1),$(*~[CH2]~[R]1@[R]@[R]@[CH2;R]1),$(*~[CH2]~*~[R]1@[R]@[CH2;R]1)]', 0)</t>
   </si>
   <si>
-    <t>MACCSFP128</t>
+    <t>MACCSFP129</t>
   </si>
   <si>
     <t>('[$(*~[CH2]~*~*~[CH2]~*),$([R]1@[CH2]@[R]@[R]@[CH2;R]1),$(*~[CH2]~[R]1@[R]@[CH2;R]1)]', 0)</t>
   </si>
   <si>
-    <t>MACCSFP129</t>
+    <t>MACCSFP130</t>
   </si>
   <si>
     <t>('[!#6;!#1]~[!#6;!#1]', 1)</t>
   </si>
   <si>
-    <t>MACCSFP130</t>
+    <t>MACCSFP131</t>
   </si>
   <si>
     <t>('[!#6;!#1;!H0]', 1)</t>
   </si>
   <si>
-    <t>MACCSFP131</t>
+    <t>MACCSFP132</t>
   </si>
   <si>
     <t>('[#8]~*~[CH2]~*', 0)</t>
   </si>
   <si>
-    <t>MACCSFP132</t>
+    <t>MACCSFP133</t>
   </si>
   <si>
     <t>('*@*!@[#7]', 0)</t>
   </si>
   <si>
-    <t>MACCSFP133</t>
+    <t>MACCSFP134</t>
   </si>
   <si>
     <t>('[F,Cl,Br,I]', 0)</t>
   </si>
   <si>
-    <t>MACCSFP134</t>
+    <t>MACCSFP135</t>
   </si>
   <si>
     <t>('[#7]!:*:*', 0)</t>
   </si>
   <si>
-    <t>MACCSFP135</t>
+    <t>MACCSFP136</t>
   </si>
   <si>
     <t>('[#8]=*', 1)</t>
   </si>
   <si>
-    <t>MACCSFP136</t>
+    <t>MACCSFP137</t>
   </si>
   <si>
     <t>('[!C;!c;R]', 0)</t>
   </si>
   <si>
-    <t>MACCSFP137</t>
+    <t>MACCSFP138</t>
   </si>
   <si>
     <t>('[!#6;!#1]~[CH2]~*', 1)</t>
   </si>
   <si>
-    <t>MACCSFP138</t>
+    <t>MACCSFP139</t>
   </si>
   <si>
     <t>('[O;!H0]', 0)</t>
   </si>
   <si>
-    <t>MACCSFP139</t>
+    <t>MACCSFP140</t>
   </si>
   <si>
     <t>('[#8]', 3)</t>
   </si>
   <si>
-    <t>MACCSFP140</t>
+    <t>MACCSFP141</t>
   </si>
   <si>
     <t>('[CH3]', 2)</t>
   </si>
   <si>
-    <t>MACCSFP141</t>
+    <t>MACCSFP142</t>
   </si>
   <si>
     <t>('[#7]', 1)</t>
   </si>
   <si>
-    <t>MACCSFP142</t>
+    <t>MACCSFP143</t>
   </si>
   <si>
     <t>('*@*!@[#8]', 0)</t>
   </si>
   <si>
-    <t>MACCSFP143</t>
+    <t>MACCSFP144</t>
   </si>
   <si>
     <t>('*!:*:*!:*', 0)</t>
   </si>
   <si>
-    <t>MACCSFP144</t>
+    <t>MACCSFP145</t>
   </si>
   <si>
     <t>('*1~*~*~*~*~*~1', 1)</t>
   </si>
   <si>
-    <t>MACCSFP145</t>
+    <t>MACCSFP146</t>
   </si>
   <si>
     <t>('[#8]', 2)</t>
   </si>
   <si>
-    <t>MACCSFP146</t>
+    <t>MACCSFP147</t>
   </si>
   <si>
     <t>('[$(*~[CH2]~[CH2]~*),$([R]1@[CH2;R]@[CH2;R]1)]', 0)</t>
   </si>
   <si>
-    <t>MACCSFP147</t>
+    <t>MACCSFP148</t>
   </si>
   <si>
     <t>('*~[!#6;!#1](~*)~*', 0)</t>
   </si>
   <si>
-    <t>MACCSFP148</t>
+    <t>MACCSFP149</t>
   </si>
   <si>
     <t>('[C;H3,H4]', 1)</t>
   </si>
   <si>
-    <t>MACCSFP149</t>
+    <t>MACCSFP150</t>
   </si>
   <si>
     <t>('*!@*@*!@*', 0)</t>
   </si>
   <si>
-    <t>MACCSFP150</t>
+    <t>MACCSFP151</t>
   </si>
   <si>
     <t>('[#7;!H0]', 0)</t>
   </si>
   <si>
-    <t>MACCSFP151</t>
+    <t>MACCSFP152</t>
   </si>
   <si>
     <t>('[#8]~[#6](~[#6])~[#6]', 0)</t>
   </si>
   <si>
-    <t>MACCSFP152</t>
+    <t>MACCSFP153</t>
   </si>
   <si>
     <t>('[!#6;!#1]~[CH2]~*', 0)</t>
   </si>
   <si>
-    <t>MACCSFP153</t>
+    <t>MACCSFP154</t>
   </si>
   <si>
     <t>('[#6]=[#8]', 0)</t>
   </si>
   <si>
-    <t>MACCSFP154</t>
+    <t>MACCSFP155</t>
   </si>
   <si>
     <t>('*!@[CH2]!@*', 0)</t>
   </si>
   <si>
-    <t>MACCSFP155</t>
+    <t>MACCSFP156</t>
   </si>
   <si>
     <t>('[#7]~*(~*)~*', 0)</t>
   </si>
   <si>
-    <t>MACCSFP156</t>
+    <t>MACCSFP157</t>
   </si>
   <si>
     <t>('[#6]-[#8]', 0)</t>
   </si>
   <si>
-    <t>MACCSFP157</t>
+    <t>MACCSFP158</t>
   </si>
   <si>
     <t>('[#6]-[#7]', 0)</t>
   </si>
   <si>
-    <t>MACCSFP158</t>
+    <t>MACCSFP159</t>
   </si>
   <si>
     <t>('[#8]', 1)</t>
   </si>
   <si>
-    <t>MACCSFP159</t>
+    <t>MACCSFP160</t>
   </si>
   <si>
     <t>('[C;H3,H4]', 0)</t>
   </si>
   <si>
-    <t>MACCSFP160</t>
+    <t>MACCSFP161</t>
   </si>
   <si>
     <t>('[#7]', 0)</t>
   </si>
   <si>
-    <t>MACCSFP161</t>
+    <t>MACCSFP162</t>
   </si>
   <si>
     <t>('a', 0)</t>
   </si>
   <si>
-    <t>MACCSFP162</t>
+    <t>MACCSFP163</t>
   </si>
   <si>
     <t>('*1~*~*~*~*~*~1', 0)</t>
   </si>
   <si>
-    <t>MACCSFP163</t>
+    <t>MACCSFP164</t>
   </si>
   <si>
     <t>('[#8]', 0)</t>
   </si>
   <si>
-    <t>MACCSFP164</t>
+    <t>MACCSFP165</t>
   </si>
   <si>
     <t>('[R]', 0)</t>
   </si>
   <si>
-    <t>MACCSFP165</t>
+    <t>MACCSFP166</t>
   </si>
 </sst>
 </file>
@@ -1023,37 +1032,15 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="_ \￥* #,##0.00_ ;_ \￥* \-#,##0.00_ ;_ \￥* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ \￥* #,##0_ ;_ \￥* \-#,##0_ ;_ \￥* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1067,40 +1054,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1108,14 +1063,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1124,13 +1072,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1145,7 +1086,84 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1159,23 +1177,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1190,25 +1199,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1220,13 +1211,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1238,7 +1229,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1256,7 +1253,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1268,55 +1367,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1328,49 +1379,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1387,8 +1396,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1402,26 +1411,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1453,16 +1453,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1486,7 +1495,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1504,130 +1513,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1954,16 +1963,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D167"/>
+  <dimension ref="A1:D168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
-      <selection activeCell="C96" sqref="C96"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="3"/>
   <cols>
     <col min="2" max="2" width="19.1428571428571" customWidth="1"/>
-    <col min="3" max="3" width="60.7142857142857" customWidth="1"/>
+    <col min="3" max="3" width="51.8571428571429" customWidth="1"/>
     <col min="4" max="4" width="27.2857142857143" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1981,7 +1990,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1990,6 +1999,9 @@
       </c>
       <c r="C2" t="s">
         <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1997,10 +2009,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2008,10 +2020,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2019,10 +2031,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2030,10 +2042,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2041,10 +2053,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2052,10 +2064,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2063,10 +2075,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2074,10 +2086,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2085,10 +2097,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2096,10 +2108,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2107,10 +2119,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -2118,10 +2130,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -2129,10 +2141,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -2140,10 +2152,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -2151,10 +2163,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -2162,10 +2174,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C18" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -2173,10 +2185,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C19" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -2184,10 +2196,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C20" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -2195,10 +2207,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -2206,10 +2218,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -2217,10 +2229,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -2228,10 +2240,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C24" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -2239,10 +2251,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C25" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -2250,10 +2262,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -2261,10 +2273,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C27" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -2272,10 +2284,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C28" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -2283,10 +2295,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C29" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -2294,10 +2306,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C30" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -2305,10 +2317,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C31" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -2316,10 +2328,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C32" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -2327,10 +2339,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C33" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -2338,10 +2350,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C34" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -2349,10 +2361,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C35" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -2360,10 +2372,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C36" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -2371,10 +2383,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C37" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -2382,10 +2394,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C38" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -2393,10 +2405,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C39" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -2404,10 +2416,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C40" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -2415,10 +2427,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C41" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -2426,10 +2438,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C42" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -2437,10 +2449,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C43" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -2448,10 +2460,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C44" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -2459,10 +2471,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C45" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -2470,10 +2482,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C46" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -2481,10 +2493,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C47" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -2492,10 +2504,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C48" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -2503,10 +2515,10 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C49" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -2514,10 +2526,10 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C50" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -2525,10 +2537,10 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C51" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -2536,10 +2548,10 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C52" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -2547,10 +2559,10 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C53" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -2558,10 +2570,10 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C54" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -2569,10 +2581,10 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C55" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -2580,10 +2592,10 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C56" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -2591,10 +2603,10 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C57" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -2602,10 +2614,10 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C58" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -2613,10 +2625,10 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C59" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -2624,10 +2636,10 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C60" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -2635,10 +2647,10 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C61" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -2646,10 +2658,10 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C62" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -2657,10 +2669,10 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C63" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -2668,10 +2680,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C64" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -2679,10 +2691,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C65" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -2690,10 +2702,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C66" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -2701,10 +2713,10 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C67" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -2712,10 +2724,10 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C68" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -2723,10 +2735,10 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C69" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -2734,10 +2746,10 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C70" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -2745,10 +2757,10 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C71" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -2756,10 +2768,10 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C72" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -2767,10 +2779,10 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C73" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -2778,10 +2790,10 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C74" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -2789,10 +2801,10 @@
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C75" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -2800,10 +2812,10 @@
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C76" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -2811,10 +2823,10 @@
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C77" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -2822,10 +2834,10 @@
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C78" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -2833,10 +2845,10 @@
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C79" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -2844,10 +2856,10 @@
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C80" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -2855,10 +2867,10 @@
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C81" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -2866,10 +2878,10 @@
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C82" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -2877,10 +2889,10 @@
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C83" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -2888,10 +2900,10 @@
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C84" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -2899,10 +2911,10 @@
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C85" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -2910,10 +2922,10 @@
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C86" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -2921,10 +2933,10 @@
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C87" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -2932,10 +2944,10 @@
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C88" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -2943,10 +2955,10 @@
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C89" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -2954,10 +2966,10 @@
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C90" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -2965,10 +2977,10 @@
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C91" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -2976,10 +2988,10 @@
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C92" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -2987,10 +2999,10 @@
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C93" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -2998,10 +3010,10 @@
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C94" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -3009,10 +3021,10 @@
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C95" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -3020,10 +3032,10 @@
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C96" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -3031,10 +3043,10 @@
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C97" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -3042,10 +3054,10 @@
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C98" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -3053,10 +3065,10 @@
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C99" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -3064,10 +3076,10 @@
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C100" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -3075,10 +3087,10 @@
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C101" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -3086,10 +3098,10 @@
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C102" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -3097,10 +3109,10 @@
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C103" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -3108,10 +3120,10 @@
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C104" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -3119,10 +3131,10 @@
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C105" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -3130,10 +3142,10 @@
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C106" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -3141,10 +3153,10 @@
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C107" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -3152,10 +3164,10 @@
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C108" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -3163,10 +3175,10 @@
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C109" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -3174,10 +3186,10 @@
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C110" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -3185,10 +3197,10 @@
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C111" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -3196,10 +3208,10 @@
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C112" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -3207,10 +3219,10 @@
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C113" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -3218,10 +3230,10 @@
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C114" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -3229,10 +3241,10 @@
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C115" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -3240,10 +3252,10 @@
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C116" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -3251,10 +3263,10 @@
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C117" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -3262,10 +3274,10 @@
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C118" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -3273,10 +3285,10 @@
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C119" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -3284,10 +3296,10 @@
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C120" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -3295,10 +3307,10 @@
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C121" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -3306,10 +3318,10 @@
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C122" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -3317,10 +3329,10 @@
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C123" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -3328,10 +3340,10 @@
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C124" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -3339,10 +3351,10 @@
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C125" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -3350,10 +3362,10 @@
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C126" t="s">
-        <v>5</v>
+        <v>254</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -3361,10 +3373,10 @@
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C127" t="s">
-        <v>254</v>
+        <v>8</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -3372,10 +3384,10 @@
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C128" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -3383,10 +3395,10 @@
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C129" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -3394,10 +3406,10 @@
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C130" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -3405,10 +3417,10 @@
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C131" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -3416,10 +3428,10 @@
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C132" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -3427,10 +3439,10 @@
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C133" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -3438,10 +3450,10 @@
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C134" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -3449,10 +3461,10 @@
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C135" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -3460,10 +3472,10 @@
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C136" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -3471,10 +3483,10 @@
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C137" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -3482,10 +3494,10 @@
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C138" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -3493,10 +3505,10 @@
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C139" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -3504,10 +3516,10 @@
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C140" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -3515,10 +3527,10 @@
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C141" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -3526,10 +3538,10 @@
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C142" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -3537,10 +3549,10 @@
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C143" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -3548,10 +3560,10 @@
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C144" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -3559,10 +3571,10 @@
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C145" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -3570,10 +3582,10 @@
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C146" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -3581,10 +3593,10 @@
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C147" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -3592,10 +3604,10 @@
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C148" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -3603,10 +3615,10 @@
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C149" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -3614,10 +3626,10 @@
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C150" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -3625,10 +3637,10 @@
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C151" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -3636,10 +3648,10 @@
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C152" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -3647,10 +3659,10 @@
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C153" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -3658,10 +3670,10 @@
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C154" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -3669,10 +3681,10 @@
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C155" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -3680,10 +3692,10 @@
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C156" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -3691,10 +3703,10 @@
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C157" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -3702,10 +3714,10 @@
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C158" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -3713,10 +3725,10 @@
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C159" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -3724,10 +3736,10 @@
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C160" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -3735,10 +3747,10 @@
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C161" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -3746,10 +3758,10 @@
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C162" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -3757,10 +3769,10 @@
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C163" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -3768,10 +3780,10 @@
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C164" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -3779,10 +3791,10 @@
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C165" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -3790,10 +3802,10 @@
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C166" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -3801,10 +3813,21 @@
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C167" t="s">
-        <v>5</v>
+        <v>335</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3">
+      <c r="A168">
+        <v>166</v>
+      </c>
+      <c r="B168" t="s">
+        <v>336</v>
+      </c>
+      <c r="C168" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
